--- a/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
+++ b/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
@@ -241,7 +241,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +328,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -392,50 +404,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -443,29 +473,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -772,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,159 +800,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="15"/>
       <c r="E1" s="26"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="16"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="18"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40" t="s">
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41" t="s">
+    <row r="7" spans="1:19" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="30"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -956,40 +964,40 @@
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="45" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="19" t="s">
@@ -999,11 +1007,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="14">
         <f>SUM(D8:D8)</f>
         <v>0</v>
@@ -1068,12 +1076,12 @@
       <c r="E11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
       <c r="S11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,6 +1129,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1137,17 +1148,14 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:B9 Q8:Q9 D9:P9 A8:P8">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
+++ b/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
@@ -168,10 +168,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -328,7 +329,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -407,6 +408,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -434,37 +465,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,7 +788,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,159 +807,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="15"/>
       <c r="E1" s="26"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="16"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="18"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="42" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="46" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="39" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="47" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="41"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -964,40 +971,40 @@
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="32" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="19" t="s">
@@ -1007,11 +1014,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="14">
         <f>SUM(D8:D8)</f>
         <v>0</v>
@@ -1024,15 +1031,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1076,12 +1083,12 @@
       <c r="E11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
       <c r="S11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,6 +1136,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="G6:I6"/>
@@ -1145,9 +1155,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:B9 Q8:Q9 D9:P9 A8:P8">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">

--- a/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
+++ b/MedicalLink/Templates/BC_118_DSHuongTienDVYCCLC.xlsx
@@ -426,53 +426,53 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -787,140 +787,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="15" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="15" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="15"/>
       <c r="E1" s="26"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="16"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="18"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="39" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="39" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="36" t="s">
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="33" t="s">
         <v>25</v>
       </c>
@@ -957,9 +960,9 @@
       <c r="O7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="51"/>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -980,13 +983,13 @@
       <c r="F8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="36" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -1014,11 +1017,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="14">
         <f>SUM(D8:D8)</f>
         <v>0</v>
@@ -1031,15 +1034,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1083,12 +1086,12 @@
       <c r="E11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
       <c r="S11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1136,9 +1139,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="G6:I6"/>
@@ -1155,6 +1155,9 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:B9 Q8:Q9 D9:P9 A8:P8">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
